--- a/Excel-XLSX/UN-GAM.xlsx
+++ b/Excel-XLSX/UN-GAM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="421">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>gtH5M7</t>
+    <t>abK5LD</t>
   </si>
   <si>
     <t>1975</t>
@@ -1251,31 +1251,34 @@
     <t>232</t>
   </si>
   <si>
-    <t>3661</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
     <t>233</t>
   </si>
   <si>
+    <t>3721</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
     <t>235</t>
   </si>
   <si>
     <t>236</t>
   </si>
   <si>
+    <t>237</t>
+  </si>
+  <si>
     <t>Syrian Arab Rep.</t>
   </si>
   <si>
     <t>SYR</t>
   </si>
   <si>
-    <t>237</t>
-  </si>
-  <si>
     <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1663,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V239"/>
+  <dimension ref="A1:V240"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -16941,10 +16944,10 @@
         <v>31</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O225" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="P225" s="2" t="s">
         <v>32</v>
@@ -17009,7 +17012,7 @@
         <v>31</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="O226" s="2" t="s">
         <v>32</v>
@@ -17148,7 +17151,7 @@
         <v>50</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P228" s="2" t="s">
         <v>32</v>
@@ -17213,10 +17216,10 @@
         <v>31</v>
       </c>
       <c r="N229" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P229" s="2" t="s">
         <v>32</v>
@@ -17349,7 +17352,7 @@
         <v>31</v>
       </c>
       <c r="N231" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="O231" s="2" t="s">
         <v>32</v>
@@ -17393,16 +17396,16 @@
         <v>403</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>322</v>
+        <v>155</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>368</v>
+        <v>156</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>369</v>
+        <v>157</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>369</v>
+        <v>158</v>
       </c>
       <c r="J232" s="2" t="s">
         <v>28</v>
@@ -17417,10 +17420,10 @@
         <v>31</v>
       </c>
       <c r="N232" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O232" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="O232" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P232" s="2" t="s">
         <v>32</v>
@@ -17461,16 +17464,16 @@
         <v>403</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>56</v>
+        <v>322</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>57</v>
+        <v>368</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>58</v>
+        <v>369</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>58</v>
+        <v>369</v>
       </c>
       <c r="J233" s="2" t="s">
         <v>28</v>
@@ -17485,10 +17488,10 @@
         <v>31</v>
       </c>
       <c r="N233" s="2" t="s">
-        <v>411</v>
+        <v>50</v>
       </c>
       <c r="O233" s="2" t="s">
-        <v>412</v>
+        <v>32</v>
       </c>
       <c r="P233" s="2" t="s">
         <v>32</v>
@@ -17523,22 +17526,22 @@
         <v>22</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>403</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="J234" s="2" t="s">
         <v>28</v>
@@ -17553,10 +17556,10 @@
         <v>31</v>
       </c>
       <c r="N234" s="2" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="O234" s="2" t="s">
-        <v>71</v>
+        <v>413</v>
       </c>
       <c r="P234" s="2" t="s">
         <v>32</v>
@@ -17597,16 +17600,16 @@
         <v>403</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="J235" s="2" t="s">
         <v>28</v>
@@ -17621,10 +17624,10 @@
         <v>31</v>
       </c>
       <c r="N235" s="2" t="s">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="O235" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="P235" s="2" t="s">
         <v>32</v>
@@ -17665,16 +17668,16 @@
         <v>403</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J236" s="2" t="s">
         <v>28</v>
@@ -17689,10 +17692,10 @@
         <v>31</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O236" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="P236" s="2" t="s">
         <v>32</v>
@@ -17733,16 +17736,16 @@
         <v>403</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>354</v>
+        <v>72</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>416</v>
+        <v>73</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>417</v>
+        <v>74</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>417</v>
+        <v>75</v>
       </c>
       <c r="J237" s="2" t="s">
         <v>28</v>
@@ -17757,10 +17760,10 @@
         <v>31</v>
       </c>
       <c r="N237" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O237" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="P237" s="2" t="s">
         <v>32</v>
@@ -17795,22 +17798,22 @@
         <v>22</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>403</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>244</v>
+        <v>417</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>245</v>
+        <v>418</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="J238" s="2" t="s">
         <v>28</v>
@@ -17825,7 +17828,7 @@
         <v>31</v>
       </c>
       <c r="N238" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O238" s="2" t="s">
         <v>32</v>
@@ -17869,54 +17872,122 @@
         <v>403</v>
       </c>
       <c r="F239" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J239" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K239" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M239" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N239" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O239" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P239" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q239" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R239" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S239" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T239" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U239" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V239" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F240" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="G240" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="H239" s="1" t="s">
+      <c r="H240" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="I239" s="1" t="s">
+      <c r="I240" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K239" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L239" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M239" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N239" s="2" t="s">
+      <c r="J240" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M240" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N240" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O239" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P239" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q239" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R239" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S239" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T239" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U239" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V239" s="2" t="s">
+      <c r="O240" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P240" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q240" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R240" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S240" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T240" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U240" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V240" s="2" t="s">
         <v>32</v>
       </c>
     </row>
